--- a/data/financial_statements/soci/ORLY.xlsx
+++ b/data/financial_statements/soci/ORLY.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,144 +598,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>3798619000</v>
+        <v>3799000000</v>
       </c>
       <c r="C2">
-        <v>3670737000</v>
+        <v>3671000000</v>
       </c>
       <c r="D2">
-        <v>3296011000</v>
+        <v>3296000000</v>
       </c>
       <c r="E2">
-        <v>3291493000</v>
+        <v>3291000000</v>
       </c>
       <c r="F2">
-        <v>3479570000</v>
+        <v>3480000000</v>
       </c>
       <c r="G2">
         <v>3465601000</v>
@@ -730,23 +841,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0.0917</v>
       </c>
       <c r="C3">
-        <v>0.0592</v>
+        <v>0.0593</v>
       </c>
       <c r="D3">
         <v>0.0664</v>
       </c>
       <c r="E3">
-        <v>0.1636</v>
+        <v>0.1634</v>
       </c>
       <c r="F3">
-        <v>0.0848</v>
+        <v>0.0849</v>
       </c>
       <c r="G3">
         <v>0.121</v>
@@ -852,23 +963,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1863657000</v>
+        <v>1864000000</v>
       </c>
       <c r="C4">
-        <v>1786019000</v>
+        <v>1786000000</v>
       </c>
       <c r="D4">
-        <v>1587939000</v>
+        <v>1588000000</v>
       </c>
       <c r="E4">
-        <v>1556957000</v>
+        <v>1557000000</v>
       </c>
       <c r="F4">
-        <v>1661330000</v>
+        <v>1661000000</v>
       </c>
       <c r="G4">
         <v>1639223000</v>
@@ -974,23 +1085,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1934962000</v>
+        <v>1935000000</v>
       </c>
       <c r="C5">
-        <v>1884718000</v>
+        <v>1885000000</v>
       </c>
       <c r="D5">
-        <v>1708072000</v>
+        <v>1708000000</v>
       </c>
       <c r="E5">
-        <v>1734537000</v>
+        <v>1735000000</v>
       </c>
       <c r="F5">
-        <v>1818240000</v>
+        <v>1818000000</v>
       </c>
       <c r="G5">
         <v>1826378000</v>
@@ -1096,8 +1207,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1130768000</v>
@@ -1112,7 +1223,7 @@
         <v>1058655000</v>
       </c>
       <c r="F6">
-        <v>1063641000</v>
+        <v>1064000000</v>
       </c>
       <c r="G6">
         <v>1030795000</v>
@@ -1218,8 +1329,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>804194100</v>
@@ -1340,8 +1451,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>43000000</v>
@@ -1381,23 +1492,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>43164000</v>
+        <v>1000000</v>
       </c>
       <c r="C9">
-        <v>37384000</v>
+        <v>1000000</v>
       </c>
       <c r="D9">
-        <v>34841000</v>
+        <v>1000000</v>
       </c>
       <c r="E9">
-        <v>34732000</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>34873000</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>37657000</v>
@@ -1503,23 +1614,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-42345000</v>
+        <v>3000000</v>
       </c>
       <c r="C10">
-        <v>-41252000</v>
+        <v>8000000</v>
       </c>
       <c r="D10">
-        <v>-36269000</v>
+        <v>4000000</v>
       </c>
       <c r="E10">
-        <v>-31657000</v>
+        <v>-1000000</v>
       </c>
       <c r="F10">
-        <v>-34070000</v>
+        <v>1000000</v>
       </c>
       <c r="G10">
         <v>-34249000</v>
@@ -1625,23 +1736,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>761849000</v>
+        <v>762000000</v>
       </c>
       <c r="C11">
-        <v>757298000</v>
+        <v>757000000</v>
       </c>
       <c r="D11">
-        <v>633261000</v>
+        <v>633000000</v>
       </c>
       <c r="E11">
-        <v>644224000</v>
+        <v>644000000</v>
       </c>
       <c r="F11">
-        <v>720529000</v>
+        <v>721000000</v>
       </c>
       <c r="G11">
         <v>761334000</v>
@@ -1747,23 +1858,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>176411000</v>
+        <v>176000000</v>
       </c>
       <c r="C12">
-        <v>180538000</v>
+        <v>181000000</v>
       </c>
       <c r="D12">
-        <v>151381000</v>
+        <v>151000000</v>
       </c>
       <c r="E12">
-        <v>125251000</v>
+        <v>125000000</v>
       </c>
       <c r="F12">
-        <v>161877000</v>
+        <v>162000000</v>
       </c>
       <c r="G12">
         <v>175883000</v>
@@ -1869,8 +1980,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>585438000</v>
@@ -1991,8 +2102,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2017,23 +2128,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>585438000</v>
+        <v>585000000</v>
       </c>
       <c r="C15">
-        <v>576760000</v>
+        <v>577000000</v>
       </c>
       <c r="D15">
-        <v>481880000</v>
+        <v>482000000</v>
       </c>
       <c r="E15">
-        <v>518973100</v>
+        <v>519000000</v>
       </c>
       <c r="F15">
-        <v>558652000</v>
+        <v>559000000</v>
       </c>
       <c r="G15">
         <v>585451000</v>
@@ -2139,23 +2250,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>9.25</v>
+        <v>9.17</v>
       </c>
       <c r="C16">
-        <v>8.859999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="D16">
-        <v>7.24</v>
+        <v>7.17</v>
       </c>
       <c r="E16">
-        <v>7.71</v>
+        <v>7.64</v>
       </c>
       <c r="F16">
-        <v>8.140000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="G16">
         <v>8.41</v>
@@ -2261,8 +2372,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>9.17</v>
@@ -2383,23 +2494,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>63288000</v>
+        <v>63000000</v>
       </c>
       <c r="C18">
-        <v>65116000</v>
+        <v>65000000</v>
       </c>
       <c r="D18">
-        <v>66572000</v>
+        <v>67000000</v>
       </c>
       <c r="E18">
-        <v>68967000</v>
+        <v>67000000</v>
       </c>
       <c r="F18">
-        <v>68608000</v>
+        <v>69000000</v>
       </c>
       <c r="G18">
         <v>69618000</v>
@@ -2505,23 +2616,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>63860000</v>
+        <v>64000000</v>
       </c>
       <c r="C19">
-        <v>65686000</v>
+        <v>66000000</v>
       </c>
       <c r="D19">
-        <v>67190000</v>
+        <v>67000000</v>
       </c>
       <c r="E19">
-        <v>69611000</v>
+        <v>68000000</v>
       </c>
       <c r="F19">
-        <v>69240000</v>
+        <v>69000000</v>
       </c>
       <c r="G19">
         <v>70264000</v>
@@ -2627,23 +2738,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.5094</v>
+        <v>0.5093</v>
       </c>
       <c r="C20">
-        <v>0.5134</v>
+        <v>0.5135</v>
       </c>
       <c r="D20">
         <v>0.5182</v>
       </c>
       <c r="E20">
-        <v>0.527</v>
+        <v>0.5272</v>
       </c>
       <c r="F20">
-        <v>0.5225</v>
+        <v>0.5224</v>
       </c>
       <c r="G20">
         <v>0.527</v>
@@ -2749,8 +2860,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0.2117</v>
@@ -2762,10 +2873,10 @@
         <v>0.2031</v>
       </c>
       <c r="E21">
-        <v>0.2053</v>
+        <v>0.2054</v>
       </c>
       <c r="F21">
-        <v>0.2169</v>
+        <v>0.2168</v>
       </c>
       <c r="G21">
         <v>0.2296</v>
@@ -2871,14 +2982,14 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.2006</v>
       </c>
       <c r="C22">
-        <v>0.2063</v>
+        <v>0.2062</v>
       </c>
       <c r="D22">
         <v>0.1921</v>
@@ -2887,7 +2998,7 @@
         <v>0.1957</v>
       </c>
       <c r="F22">
-        <v>0.2071</v>
+        <v>0.2072</v>
       </c>
       <c r="G22">
         <v>0.2197</v>
@@ -2993,14 +3104,14 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.1541</v>
+        <v>0.154</v>
       </c>
       <c r="C23">
-        <v>0.1571</v>
+        <v>0.1572</v>
       </c>
       <c r="D23">
         <v>0.1462</v>
@@ -3115,23 +3226,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>895445100</v>
+        <v>894000000</v>
       </c>
       <c r="C24">
-        <v>884812100</v>
+        <v>884000000</v>
       </c>
       <c r="D24">
-        <v>753555100</v>
+        <v>752000000</v>
       </c>
       <c r="E24">
-        <v>767538300</v>
+        <v>766000000</v>
       </c>
       <c r="F24">
-        <v>834423100</v>
+        <v>833000000</v>
       </c>
       <c r="G24">
         <v>875880000</v>
@@ -3237,8 +3348,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>804194100</v>
@@ -3359,8 +3470,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>585438000</v>
@@ -3481,23 +3592,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>585438000</v>
+        <v>585000000</v>
       </c>
       <c r="C27">
-        <v>576760000</v>
+        <v>577000000</v>
       </c>
       <c r="D27">
-        <v>481880000</v>
+        <v>482000000</v>
       </c>
       <c r="E27">
-        <v>518973100</v>
+        <v>519000000</v>
       </c>
       <c r="F27">
-        <v>558652000</v>
+        <v>559000000</v>
       </c>
       <c r="G27">
         <v>585451000</v>
@@ -3603,8 +3714,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>9.250400000000001</v>
@@ -3725,8 +3836,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>9.1675</v>
@@ -3847,8 +3958,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>9.250400000000001</v>
@@ -3969,8 +4080,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>9.1675</v>
@@ -4091,8 +4202,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>63860000</v>
@@ -4213,23 +4324,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>0.2357</v>
+        <v>0.2353</v>
       </c>
       <c r="C33">
-        <v>0.241</v>
+        <v>0.2408</v>
       </c>
       <c r="D33">
-        <v>0.2286</v>
+        <v>0.2282</v>
       </c>
       <c r="E33">
-        <v>0.2332</v>
+        <v>0.2328</v>
       </c>
       <c r="F33">
-        <v>0.2398</v>
+        <v>0.2394</v>
       </c>
       <c r="G33">
         <v>0.2527</v>
@@ -4335,8 +4446,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>0.253</v>
@@ -4348,7 +4459,7 @@
         <v>0.2093</v>
       </c>
       <c r="E34">
-        <v>0.195</v>
+        <v>0.1951</v>
       </c>
       <c r="F34">
         <v>0.245</v>
